--- a/doc/【ToDoリスト】ER図_外山秀樹.xlsx
+++ b/doc/【ToDoリスト】ER図_外山秀樹.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Desktop\OJT資料\設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14A1F1A-B298-4121-99D0-E6CA19DA9DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828925A-3547-46EA-80D3-B2ADC9C48CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="10245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">ToDoリスト!$A$1:$I$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">グルーピングおよび複数シートへの分割について!$A$1:$I$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">サンプル!$A$1:$I$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$I$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">改訂履歴!$A$1:$I$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">構成要素!$A$1:$I$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$T$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ToDoリスト!$1:$3</definedName>
@@ -36,7 +36,7 @@
     <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="2" hidden="1">ToDoリスト!$A$1:$I$21</definedName>
     <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="5" hidden="1">グルーピングおよび複数シートへの分割について!$A$1:$I$21</definedName>
     <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="3" hidden="1">サンプル!$A$1:$I$21</definedName>
-    <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="1" hidden="1">改訂履歴!$A$1:$I$20</definedName>
+    <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="1" hidden="1">改訂履歴!$A$1:$I$19</definedName>
     <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="4" hidden="1">構成要素!$A$1:$I$15</definedName>
     <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintArea" localSheetId="0" hidden="1">表紙!$A$1:$T$29</definedName>
     <definedName name="Z_30828D9E_B79A_47BE_A26A_3FA53D27D44A_.wvu.PrintTitles" localSheetId="2" hidden="1">ToDoリスト!$1:$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
   <si>
     <t>構成要素</t>
     <rPh sb="0" eb="2">
@@ -687,6 +687,57 @@
   </si>
   <si>
     <t>（ToDoリスト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外山</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュー指摘</t>
+  </si>
+  <si>
+    <t>全体</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB設計ミス(テーブル定義)</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了日と実施日で紐づけ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリョウビ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジッシビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒモ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1460,7 +1511,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1554,15 +1614,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1648,15 +1699,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>122398</xdr:rowOff>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>297183</xdr:rowOff>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190503</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1671,7 +1722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4671060" y="2408398"/>
+          <a:off x="4594860" y="3330418"/>
           <a:ext cx="4499610" cy="860585"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
@@ -1789,110 +1840,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>956310</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198598</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 線 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7088505" y="1463040"/>
-          <a:ext cx="4109085" cy="678658"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -56055"/>
-            <a:gd name="adj2" fmla="val 40831"/>
-            <a:gd name="adj3" fmla="val -11420"/>
-            <a:gd name="adj4" fmla="val 48417"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>印刷を考慮し「列」の追加、幅の変更は不可とします。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ただし「行」の高さについては変更可能とします。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1900,440 +1847,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>320924</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>464466</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>208462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>744856</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>281610</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="グループ化 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D747F9E-0416-4BDA-BAB8-91870D9E0D7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="324734" y="711691"/>
-          <a:ext cx="3663095" cy="1288229"/>
-          <a:chOff x="984250" y="1341473"/>
-          <a:chExt cx="1940817" cy="1248285"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="14" name="グループ化 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F84ABCE-3ADD-44A7-8F58-AB5FE1DD64BB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="984250" y="1657350"/>
-            <a:ext cx="1940817" cy="932408"/>
-            <a:chOff x="914400" y="1549400"/>
-            <a:chExt cx="1940817" cy="932408"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="正方形/長方形 9">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A866F703-0A97-4DD1-9F97-353E0AD10A84}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="914400" y="1549400"/>
-              <a:ext cx="1940817" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>タスク</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>ID(TASK_ID) </a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="正方形/長方形 10">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360B2D28-0D21-4C15-BFEE-58DD41E6BBBC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="914400" y="1797049"/>
-              <a:ext cx="1940817" cy="684759"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>タスク名</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(TASK_NAME)</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>タスクの詳細</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(TASK_DETAIL))</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="13" name="正方形/長方形 12">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82E80AB-D284-414A-BA2B-87DDC187F9B8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="990600" y="1625600"/>
-              <a:ext cx="50800" cy="95250"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="正方形/長方形 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A9CEF07-8515-480A-9B40-1C032C47D575}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="984250" y="1341473"/>
-            <a:ext cx="1270000" cy="279400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>タスク</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>(task)</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342135</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>564540</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>751812</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:rowOff>130533</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2348,8 +1871,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="342135" y="2846142"/>
-          <a:ext cx="3654555" cy="1255654"/>
+          <a:off x="4777386" y="1580062"/>
+          <a:ext cx="3635754" cy="1293671"/>
           <a:chOff x="977433" y="1227495"/>
           <a:chExt cx="1271737" cy="1665547"/>
         </a:xfrm>
@@ -2429,7 +1952,7 @@
                 <a:t>　</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
                     <a:srgbClr val="FF0000"/>
                   </a:solidFill>
@@ -2438,7 +1961,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>タスク</a:t>
+                <a:t>ジャンル</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -2450,11 +1973,23 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ID(TASK_ID) </a:t>
+                <a:t>ID(genru_id) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>increments </a:t>
               </a:r>
               <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:endParaRPr>
@@ -2550,58 +2085,6 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ジャンル</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>iD(GENRU_ID) </a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
@@ -2623,11 +2106,23 @@
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(GENRU_NAME)</a:t>
+                <a:t>(genru_name) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>string notnull</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2678,8 +2173,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="926908" y="1570311"/>
-              <a:ext cx="50800" cy="95250"/>
+              <a:off x="926928" y="1569628"/>
+              <a:ext cx="50853" cy="95106"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2798,7 +2293,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(GENRU)</a:t>
+              <a:t>(genru)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -2815,16 +2310,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>616034</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>224425</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>380887</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>77242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>687624</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>2567</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>810534</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>266948</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2839,8 +2334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7285439" y="686346"/>
-          <a:ext cx="3672620" cy="3747417"/>
+          <a:off x="380887" y="763042"/>
+          <a:ext cx="3668147" cy="4647406"/>
           <a:chOff x="984250" y="1341473"/>
           <a:chExt cx="1940817" cy="3229972"/>
         </a:xfrm>
@@ -2929,7 +2424,17 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>ID(TASK_ID)</a:t>
+                <a:t>ID(task_id) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>increments</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3019,8 +2524,61 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(TASK_STATUS)(FK)</a:t>
+                <a:t>(task_status) </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>char(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,1) notnull</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3041,7 +2599,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" b="0" i="0">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3053,7 +2611,7 @@
                 <a:t>完了期限</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3062,11 +2620,55 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(DEADLINE)</a:t>
+                <a:t>(deadline) </a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>string</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>null</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -3082,7 +2684,7 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>完了日時</a:t>
+                <a:t>完了日</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
@@ -3092,7 +2694,29 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(ACHIEVEMENT)</a:t>
+                <a:t>(achievement) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>date</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3105,7 +2729,7 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>作成日時</a:t>
+                <a:t>作成日</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
@@ -3115,11 +2739,57 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(created_at)</a:t>
+                <a:t>(created_a</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>t)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>timestamps</a:t>
               </a:r>
               <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -3135,7 +2805,7 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>更新日時</a:t>
+                <a:t>更新日</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
@@ -3145,8 +2815,31 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(update_at)</a:t>
+                <a:t>(update_at)  </a:t>
               </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>timestamps</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
@@ -3158,7 +2851,7 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>削除日時</a:t>
+                <a:t>削除日</a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
@@ -3168,7 +2861,19 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(delete_at)</a:t>
+                <a:t>(delete_at)   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>smalldatetime</a:t>
               </a:r>
             </a:p>
             <a:p>
@@ -3191,17 +2896,271 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(DELETE</a:t>
+                <a:t>(delete-flg) </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>char(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,1)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>タスク名</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(task_name) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>varchar</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>('</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>',100) </a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>タスクの詳細</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(task_detail)) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>text</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ジャンル</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>iD(genru_id) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(FK)</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>_FLG</a:t>
+                <a:t>セット数  </a:t>
               </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
@@ -3211,15 +3170,95 @@
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>(set_count) </a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>varchar</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>回数</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>count</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>)            </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>varchar</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3284,7 +3323,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>タスクステータス</a:t>
+              <a:t>タスク</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
@@ -3294,7 +3333,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(STATUS)</a:t>
+              <a:t>(task)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -3309,115 +3348,603 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1120956</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>285420</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>821882</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>6107</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>323200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>463825</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFC62F9-4F8B-44B0-820F-00DE5DC5D67C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF88FAE2-5503-4BCA-8B7A-6A57926C720B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="26" idx="2"/>
-          <a:endCxn id="11" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2156282" y="1999920"/>
-          <a:ext cx="11586" cy="1056541"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4068665" y="2055136"/>
+          <a:ext cx="718682" cy="396516"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>741046</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>271672</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456846</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>48442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>612913</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>281609</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>313413</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5ADB13-EB7B-4F18-9329-98C2BB7B7194}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F561318-161A-413A-BD85-D8FFF0922646}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3987829" y="1646585"/>
-          <a:ext cx="3292584" cy="9937"/>
+          <a:off x="4769766" y="3820342"/>
+          <a:ext cx="3635754" cy="1293671"/>
+          <a:chOff x="977433" y="1227495"/>
+          <a:chExt cx="1271737" cy="1665547"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="グループ化 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03808A7-6274-453C-9602-20A61D6143AB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="979170" y="1537827"/>
+            <a:ext cx="1270000" cy="1355215"/>
+            <a:chOff x="909320" y="1429877"/>
+            <a:chExt cx="1270000" cy="1355215"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="正方形/長方形 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49CB922-4B82-4CE2-81BB-0EA34D64EAF2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="909320" y="1429877"/>
+              <a:ext cx="1270000" cy="373291"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>　　 実施日</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(create) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>date</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:srgbClr val="00B050"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>一意</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="en-US" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>ここにプロジェクト作成した時の情報を登録</a:t>
+              </a:r>
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="正方形/長方形 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D26AE5-A47F-4ABE-9340-69B419D063CC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="909320" y="1803168"/>
+              <a:ext cx="1270000" cy="981924"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="正方形/長方形 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACFA77C-DF15-4AE8-AE74-AE411E4A878D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="926928" y="1569628"/>
+              <a:ext cx="50853" cy="95106"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2411BDA0-7F46-4ED3-BEA8-DEF193ECC019}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="977433" y="1227495"/>
+            <a:ext cx="1270000" cy="279399"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+            <a:prstTxWarp prst="textNoShape">
+              <a:avLst/>
+            </a:prstTxWarp>
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>プロジェクト</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>(project)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>814925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>249196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>456868</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>306125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0573E856-FEA5-4BAC-8458-A5805423E6AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4053425" y="4363996"/>
+          <a:ext cx="716363" cy="399829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6066,7 +6593,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="76" t="str">
         <f>"Ver. " &amp; INDEX(改訂履歴!A:A,COUNTA(改訂履歴!A:A)+1)</f>
-        <v>Ver. 1.0.0</v>
+        <v>Ver. 1.0.1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -6253,11 +6780,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6285,16 +6812,15 @@
       <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19" t="str">
+      <c r="G1" s="19">
         <f>IF(ISBLANK(B5),"",B5)</f>
-        <v/>
+        <v>44565</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20" t="str">
-        <f>IF(ISBLANK(C5),"",C5)</f>
-        <v/>
+      <c r="I1" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6313,14 +6839,14 @@
       </c>
       <c r="G2" s="27" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",TEXT(INDEX(B:B,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"YYYY/MM/DD"))</f>
-        <v/>
+        <v>2022/01/07</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="28" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",INDEX(C:C,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))))</f>
-        <v/>
+        <v>外山</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6350,46 +6876,62 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="108"/>
+      <c r="I4" s="111"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="36">
+        <v>44565</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>55</v>
+      </c>
       <c r="D5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="G5" s="112"/>
+      <c r="H5" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="109"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
+      <c r="I5" s="112"/>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="36">
+        <v>44568</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="107" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="112" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="112"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="106"/>
@@ -6397,10 +6939,10 @@
       <c r="C7" s="38"/>
       <c r="D7" s="37"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="106"/>
@@ -6408,32 +6950,32 @@
       <c r="C8" s="38"/>
       <c r="D8" s="37"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="106"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="116"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
@@ -6441,10 +6983,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="113"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="116"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
@@ -6452,10 +6994,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="116"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
@@ -6463,10 +7005,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="116"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
@@ -6474,10 +7016,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="113"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="116"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="40"/>
@@ -6485,10 +7027,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="116"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="40"/>
@@ -6496,10 +7038,10 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="113"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="40"/>
@@ -6533,17 +7075,6 @@
       <c r="G19" s="8"/>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="40"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6559,21 +7090,19 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="26">
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
+  <mergeCells count="24">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="F8:G8"/>
@@ -6589,7 +7118,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"機能追加,誤字脱字,仕様バグ,レビュー指摘"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6612,9 +7141,9 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6685,10 +7214,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="50"/>
@@ -6696,10 +7225,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
@@ -6707,32 +7236,32 @@
       <c r="C6" s="13"/>
       <c r="D6" s="52"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="52"/>
       <c r="E7" s="55"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="52"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
@@ -6740,10 +7269,10 @@
       <c r="C9" s="13"/>
       <c r="D9" s="52"/>
       <c r="E9" s="55"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
@@ -6751,10 +7280,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="52"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
@@ -6762,10 +7291,12 @@
       <c r="C11" s="13"/>
       <c r="D11" s="52"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
+      <c r="F11" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="56"/>
@@ -6773,10 +7304,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="52"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="56"/>
@@ -6784,10 +7315,10 @@
       <c r="C13" s="13"/>
       <c r="D13" s="52"/>
       <c r="E13" s="55"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="56"/>
@@ -6795,10 +7326,10 @@
       <c r="C14" s="13"/>
       <c r="D14" s="52"/>
       <c r="E14" s="55"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
@@ -6806,10 +7337,10 @@
       <c r="C15" s="13"/>
       <c r="D15" s="52"/>
       <c r="E15" s="55"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
@@ -7008,10 +7539,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
@@ -7019,10 +7550,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="54"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="120"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -7030,10 +7561,10 @@
       <c r="C6" s="12"/>
       <c r="D6" s="52"/>
       <c r="E6" s="54"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="117"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
@@ -7041,10 +7572,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="52"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="65"/>
@@ -7052,10 +7583,10 @@
       <c r="C8" s="12"/>
       <c r="D8" s="52"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="65"/>
@@ -7063,10 +7594,10 @@
       <c r="C9" s="12"/>
       <c r="D9" s="52"/>
       <c r="E9" s="54"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="117"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="120"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="65"/>
@@ -7074,10 +7605,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="52"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7085,10 +7616,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="52"/>
       <c r="E11" s="54"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7096,10 +7627,10 @@
       <c r="C12" s="12"/>
       <c r="D12" s="52"/>
       <c r="E12" s="54"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7107,10 +7638,10 @@
       <c r="C13" s="12"/>
       <c r="D13" s="52"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7118,10 +7649,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="52"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7129,10 +7660,10 @@
       <c r="C15" s="12"/>
       <c r="D15" s="52"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7261,7 +7792,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7345,42 +7876,42 @@
       <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="129"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="118" t="s">
+      <c r="E5" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="132" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="123"/>
+      <c r="H5" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="120"/>
+      <c r="I5" s="123"/>
     </row>
     <row r="6" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="120"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="92"/>
-      <c r="E6" s="126" t="s">
+      <c r="E6" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="87"/>
@@ -7391,13 +7922,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="93"/>
-      <c r="E7" s="126" t="s">
+      <c r="E7" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="131"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88"/>
@@ -7408,30 +7939,30 @@
         <v>30</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="126" t="s">
+      <c r="E8" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
     </row>
     <row r="9" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="120"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="85"/>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="131"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96"/>
@@ -7442,80 +7973,80 @@
       <c r="D10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="126" t="s">
+      <c r="E10" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="127"/>
-      <c r="G10" s="128"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="131"/>
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="87"/>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="125"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="127"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
     </row>
     <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="87"/>
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
       <c r="D12" s="85"/>
-      <c r="E12" s="126" t="s">
+      <c r="E12" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="127"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
     </row>
     <row r="13" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="87"/>
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
       <c r="D13" s="85"/>
-      <c r="E13" s="126" t="s">
+      <c r="E13" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="127"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="131"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="134"/>
     </row>
     <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="87"/>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="126" t="s">
+      <c r="E14" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="134"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="88"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="126" t="s">
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="130"/>
-      <c r="I15" s="131"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="134"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7580,7 +8111,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7656,23 +8187,23 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="98"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
-      <c r="B5" s="137" t="s">
+      <c r="B5" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="117"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="120"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -7732,10 +8263,10 @@
       <c r="C10" s="98"/>
       <c r="D10" s="52"/>
       <c r="E10" s="99"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="117"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7743,10 +8274,10 @@
       <c r="C11" s="98"/>
       <c r="D11" s="52"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="117"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7754,10 +8285,10 @@
       <c r="C12" s="98"/>
       <c r="D12" s="52"/>
       <c r="E12" s="99"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="117"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7765,10 +8296,10 @@
       <c r="C13" s="98"/>
       <c r="D13" s="52"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="117"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7776,10 +8307,10 @@
       <c r="C14" s="98"/>
       <c r="D14" s="52"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="117"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7787,10 +8318,10 @@
       <c r="C15" s="98"/>
       <c r="D15" s="52"/>
       <c r="E15" s="99"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="117"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7798,10 +8329,10 @@
       <c r="C16" s="98"/>
       <c r="D16" s="52"/>
       <c r="E16" s="99"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="117"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="65"/>
@@ -7857,12 +8388,12 @@
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="67"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>

--- a/doc/【ToDoリスト】ER図_外山秀樹.xlsx
+++ b/doc/【ToDoリスト】ER図_外山秀樹.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828925A-3547-46EA-80D3-B2ADC9C48CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE6EE8-B3B4-472F-978F-95114ED07057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>構成要素</t>
     <rPh sb="0" eb="2">
@@ -737,6 +737,13 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外山</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1522,59 +1529,41 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1585,35 +1574,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1871,8 +1878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4777386" y="1580062"/>
-          <a:ext cx="3635754" cy="1293671"/>
+          <a:off x="4790721" y="1583872"/>
+          <a:ext cx="3639564" cy="1293671"/>
           <a:chOff x="977433" y="1227495"/>
           <a:chExt cx="1271737" cy="1665547"/>
         </a:xfrm>
@@ -1954,7 +1961,7 @@
               <a:r>
                 <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1966,30 +1973,18 @@
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ID(genru_id) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="00B050"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>increments </a:t>
+                <a:t>ID(genru_id) increments </a:t>
               </a:r>
               <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:endParaRPr>
@@ -2085,9 +2080,9 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2097,32 +2092,32 @@
                 <a:t>ジャンル名</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(genru_name) </a:t>
+                <a:t>(genru_name)	 </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
-                    <a:srgbClr val="00B050"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>string notnull</a:t>
+                <a:t>string</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2130,9 +2125,9 @@
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2293,7 +2288,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(genru)</a:t>
+              <a:t>(genrus)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -2335,7 +2330,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="380887" y="763042"/>
-          <a:ext cx="3668147" cy="4647406"/>
+          <a:ext cx="3679577" cy="4647406"/>
           <a:chOff x="984250" y="1341473"/>
           <a:chExt cx="1940817" cy="3229972"/>
         </a:xfrm>
@@ -2407,9 +2402,9 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2417,24 +2412,14 @@
                 <a:t>タスク</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>ID(task_id) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="00B050"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>increments</a:t>
+                <a:t>ID(id) increments</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2503,7 +2488,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2515,7 +2500,7 @@
                 <a:t>ステータス</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2524,55 +2509,23 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(task_status) </a:t>
+                <a:t>(status)	 </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>char(</a:t>
+                <a:t>char</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〇</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,1) notnull</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
                 <a:latin typeface="+mn-lt"/>
@@ -2599,7 +2552,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400" b="0" i="0">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2611,7 +2564,7 @@
                 <a:t>完了期限</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2620,28 +2573,24 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(deadline) </a:t>
+                <a:t>(deadline)	 </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>string</a:t>
+                <a:t>date</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2650,25 +2599,9 @@
                 </a:rPr>
                 <a:t>  </a:t>
               </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>null</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2677,9 +2610,9 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2687,9 +2620,9 @@
                 <a:t>完了日</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2697,62 +2630,7 @@
                 <a:t>(achievement) </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>date</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>作成日</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(created_a</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>t)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2762,9 +2640,49 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>	datetime</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>作成日</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t>(created_at)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2772,11 +2690,19 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                </a:rPr>
+                <a:t> 	</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2785,11 +2711,9 @@
                 </a:rPr>
                 <a:t>timestamps</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2798,9 +2722,9 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2808,21 +2732,19 @@
                 <a:t>更新日</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(update_at)  </a:t>
+                <a:t>(update_at)  	</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -2831,11 +2753,9 @@
                 </a:rPr>
                 <a:t>timestamps</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2844,9 +2764,9 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2854,34 +2774,22 @@
                 <a:t>削除日</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(delete_at)   </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>smalldatetime</a:t>
+                <a:t>(delete_at)   	smalldatetime</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2889,62 +2797,30 @@
                 <a:t>削除フラグ</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(delete-flg) </a:t>
+                <a:t>(delete-flg) 	</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>char(</a:t>
+                <a:t>boolean</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〇</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>,1)</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -2952,7 +2828,7 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2964,7 +2840,7 @@
                 <a:t>タスク名</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2973,69 +2849,11 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(task_name) </a:t>
+                <a:t>(name)	string</a:t>
               </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>varchar</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>('</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〇</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>',100) </a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:endParaRPr>
@@ -3043,7 +2861,7 @@
             <a:p>
               <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3055,7 +2873,7 @@
                 <a:t>タスクの詳細</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3064,27 +2882,11 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(task_detail)) </a:t>
+                <a:t>(detail))	 text</a:t>
               </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>text</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
                 <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:endParaRPr>
@@ -3108,7 +2910,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3120,7 +2922,7 @@
                 <a:t>ジャンル</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3129,23 +2931,11 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>iD(genru_id) </a:t>
+                <a:t>iD(genru) 	string</a:t>
               </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(FK)</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:endParaRPr>
@@ -3153,9 +2943,9 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
@@ -3163,32 +2953,20 @@
                 <a:t>セット数  </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>(set_count) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>varchar</a:t>
+                <a:t>(set_count) 	string</a:t>
               </a:r>
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3198,7 +2976,7 @@
                 <a:t>回数</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3208,7 +2986,7 @@
                 <a:t>(</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3218,7 +2996,7 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3228,7 +3006,7 @@
                 <a:t>count</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3238,26 +3016,14 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 </a:rPr>
-                <a:t>)            </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>varchar</a:t>
+                <a:t>)            	string</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3333,7 +3099,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(task)</a:t>
+              <a:t>(tasks)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -3357,7 +3123,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>463825</xdr:colOff>
+      <xdr:colOff>467635</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57978</xdr:rowOff>
     </xdr:to>
@@ -3435,8 +3201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4769766" y="3820342"/>
-          <a:ext cx="3635754" cy="1293671"/>
+          <a:off x="4781196" y="3822247"/>
+          <a:ext cx="3639564" cy="1293671"/>
           <a:chOff x="977433" y="1227495"/>
           <a:chExt cx="1271737" cy="1665547"/>
         </a:xfrm>
@@ -3509,7 +3275,7 @@
               <a:r>
                 <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
                   <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -3521,140 +3287,18 @@
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                   <a:solidFill>
-                    <a:srgbClr val="FF0000"/>
+                    <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(create) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>date</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="00B050"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:srgbClr val="00B050"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>一意</a:t>
+                <a:t>(excution)	date  </a:t>
               </a:r>
               <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:endParaRPr lang="en-US" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t>ここにプロジェクト作成した時の情報を登録</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:effectLst/>
               </a:endParaRPr>
@@ -3871,7 +3515,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(project)</a:t>
+              <a:t>(excutions)</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -6876,14 +6520,14 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="115"/>
+      <c r="H4" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="111"/>
+      <c r="I4" s="115"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -6899,14 +6543,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112" t="s">
+      <c r="G5" s="116"/>
+      <c r="H5" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="116"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35" t="s">
@@ -6924,14 +6568,14 @@
       <c r="E6" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112" t="s">
+      <c r="G6" s="116"/>
+      <c r="H6" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="112"/>
+      <c r="I6" s="116"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="106"/>
@@ -6939,10 +6583,10 @@
       <c r="C7" s="38"/>
       <c r="D7" s="37"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="106"/>
@@ -6950,10 +6594,10 @@
       <c r="C8" s="38"/>
       <c r="D8" s="37"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="40"/>
@@ -6961,10 +6605,10 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -6972,10 +6616,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="116"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
@@ -6983,10 +6627,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="116"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="113"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
@@ -6994,10 +6638,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="116"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="113"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
@@ -7005,10 +6649,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="116"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
@@ -7016,10 +6660,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="116"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="40"/>
@@ -7027,10 +6671,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="116"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="40"/>
@@ -7091,6 +6735,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
@@ -7103,18 +6759,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -7143,7 +6787,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7171,11 +6815,15 @@
       <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="19">
+        <v>44568</v>
+      </c>
       <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
+      <c r="I1" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="22" t="s">
@@ -7191,11 +6839,15 @@
       <c r="F2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27"/>
+      <c r="G2" s="27">
+        <v>44573</v>
+      </c>
       <c r="H2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="28"/>
+      <c r="I2" s="28" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="68"/>
@@ -7214,10 +6866,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="50"/>
@@ -7225,10 +6877,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
@@ -7236,10 +6888,10 @@
       <c r="C6" s="13"/>
       <c r="D6" s="52"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="108"/>
@@ -7247,10 +6899,10 @@
       <c r="C7" s="110"/>
       <c r="D7" s="52"/>
       <c r="E7" s="55"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="108"/>
@@ -7258,10 +6910,10 @@
       <c r="C8" s="110"/>
       <c r="D8" s="52"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
@@ -7269,10 +6921,10 @@
       <c r="C9" s="13"/>
       <c r="D9" s="52"/>
       <c r="E9" s="55"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
@@ -7280,10 +6932,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="52"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="118"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
@@ -7291,12 +6943,12 @@
       <c r="C11" s="13"/>
       <c r="D11" s="52"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="56"/>
@@ -7304,10 +6956,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="52"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="56"/>
@@ -7315,10 +6967,10 @@
       <c r="C13" s="13"/>
       <c r="D13" s="52"/>
       <c r="E13" s="55"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="56"/>
@@ -7326,10 +6978,10 @@
       <c r="C14" s="13"/>
       <c r="D14" s="52"/>
       <c r="E14" s="55"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
@@ -7337,10 +6989,10 @@
       <c r="C15" s="13"/>
       <c r="D15" s="52"/>
       <c r="E15" s="55"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
@@ -7417,6 +7069,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
@@ -7429,18 +7093,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7539,10 +7191,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="119"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
@@ -7550,10 +7202,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="54"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="120"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -7561,10 +7213,10 @@
       <c r="C6" s="12"/>
       <c r="D6" s="52"/>
       <c r="E6" s="54"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="120"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
@@ -7572,10 +7224,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="52"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="120"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="65"/>
@@ -7583,10 +7235,10 @@
       <c r="C8" s="12"/>
       <c r="D8" s="52"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="120"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="119"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="65"/>
@@ -7594,10 +7246,10 @@
       <c r="C9" s="12"/>
       <c r="D9" s="52"/>
       <c r="E9" s="54"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="120"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="119"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="65"/>
@@ -7605,10 +7257,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="52"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="120"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7616,10 +7268,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="52"/>
       <c r="E11" s="54"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="120"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7627,10 +7279,10 @@
       <c r="C12" s="12"/>
       <c r="D12" s="52"/>
       <c r="E12" s="54"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="120"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="119"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7638,10 +7290,10 @@
       <c r="C13" s="12"/>
       <c r="D13" s="52"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="120"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7649,10 +7301,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="52"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="120"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7660,10 +7312,10 @@
       <c r="C15" s="12"/>
       <c r="D15" s="52"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="120"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7746,30 +7398,30 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7876,42 +7528,42 @@
       <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="132"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="135" t="s">
+      <c r="F5" s="131"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="123"/>
+      <c r="I5" s="129"/>
     </row>
     <row r="6" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="132" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="123"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="92"/>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="130"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="134"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="87"/>
@@ -7922,13 +7574,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="93"/>
-      <c r="E7" s="129" t="s">
+      <c r="E7" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="130"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88"/>
@@ -7939,30 +7591,30 @@
         <v>30</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="129" t="s">
+      <c r="E8" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="123"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="85"/>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="134"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96"/>
@@ -7973,80 +7625,80 @@
       <c r="D10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="130"/>
-      <c r="G10" s="131"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="87"/>
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="134"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="87"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
       <c r="D12" s="85"/>
-      <c r="E12" s="129" t="s">
+      <c r="E12" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="134"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="87"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="85"/>
-      <c r="E13" s="129" t="s">
+      <c r="E13" s="123" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="130"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="134"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="122"/>
     </row>
     <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="87"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="129" t="s">
+      <c r="E14" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="130"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="134"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="88"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="129" t="s">
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="134"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -8063,24 +7715,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="26">
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B11:B15"/>
@@ -8089,6 +7723,24 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -8187,23 +7839,23 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="98"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="119"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="120"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -8263,10 +7915,10 @@
       <c r="C10" s="98"/>
       <c r="D10" s="52"/>
       <c r="E10" s="99"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="120"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -8274,10 +7926,10 @@
       <c r="C11" s="98"/>
       <c r="D11" s="52"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="120"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -8285,10 +7937,10 @@
       <c r="C12" s="98"/>
       <c r="D12" s="52"/>
       <c r="E12" s="99"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="120"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="119"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -8296,10 +7948,10 @@
       <c r="C13" s="98"/>
       <c r="D13" s="52"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="120"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -8307,10 +7959,10 @@
       <c r="C14" s="98"/>
       <c r="D14" s="52"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="120"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -8318,10 +7970,10 @@
       <c r="C15" s="98"/>
       <c r="D15" s="52"/>
       <c r="E15" s="99"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="120"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -8329,10 +7981,10 @@
       <c r="C16" s="98"/>
       <c r="D16" s="52"/>
       <c r="E16" s="99"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="120"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="65"/>
@@ -8388,12 +8040,12 @@
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="67"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -8412,18 +8064,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -8431,6 +8071,18 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/doc/【ToDoリスト】ER図_外山秀樹.xlsx
+++ b/doc/【ToDoリスト】ER図_外山秀樹.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CE6EE8-B3B4-472F-978F-95114ED07057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397A8D5-FAED-4687-ACB3-A65B31400474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>構成要素</t>
     <rPh sb="0" eb="2">
@@ -745,6 +745,35 @@
     <rPh sb="0" eb="2">
       <t>トヤマ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外山</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能追加</t>
+  </si>
+  <si>
+    <t>genrusTable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム(genuru) 追加</t>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1195,7 +1224,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,6 +1556,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1705,165 +1740,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15718</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>739936</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59839</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190503</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 線 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4594860" y="3330418"/>
-          <a:ext cx="4499610" cy="860585"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -30377"/>
-            <a:gd name="adj2" fmla="val 6115"/>
-            <a:gd name="adj3" fmla="val -7878"/>
-            <a:gd name="adj4" fmla="val 11838"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>修正箇所については移動、または削除される可能性があるため、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>行数やセルなどでは表さず、章などを用いるよう留意してください。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>「○○シート △△セル」といった書き方は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>NG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>とします。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>464466</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>208462</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>564540</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>130533</xdr:rowOff>
+      <xdr:colOff>2063115</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1878,10 +1764,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4790721" y="1583872"/>
-          <a:ext cx="3639564" cy="1293671"/>
-          <a:chOff x="977433" y="1227495"/>
-          <a:chExt cx="1271737" cy="1665547"/>
+          <a:off x="3991771" y="1427629"/>
+          <a:ext cx="2397599" cy="1201272"/>
+          <a:chOff x="979170" y="1537827"/>
+          <a:chExt cx="1270000" cy="1664825"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1898,9 +1784,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="979170" y="1537827"/>
-            <a:ext cx="1270000" cy="1355215"/>
+            <a:ext cx="1270000" cy="1664825"/>
             <a:chOff x="909320" y="1429877"/>
-            <a:chExt cx="1270000" cy="1355215"/>
+            <a:chExt cx="1270000" cy="1664825"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -1949,64 +1835,6 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
             <a:lstStyle/>
             <a:p>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t>　</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ジャンル</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ID(genru_id) increments </a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
               <a:endParaRPr lang="ja-JP" altLang="ja-JP">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -2029,8 +1857,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="909320" y="1803168"/>
-              <a:ext cx="1270000" cy="981924"/>
+              <a:off x="909320" y="1803167"/>
+              <a:ext cx="1270000" cy="1291535"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2080,7 +1908,7 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2089,10 +1917,10 @@
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ジャンル名</a:t>
+                <a:t>🔑</a:t>
               </a:r>
               <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -2101,21 +1929,21 @@
                   <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(genru_name)	 </a:t>
+                <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
+                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>string</a:t>
+                <a:t>genru_id           int</a:t>
               </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2125,7 +1953,58 @@
             </a:p>
             <a:p>
               <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>     genru                  varchar(255)</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>     genru_name      varchar(26)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2155,68 +2034,6 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="29" name="正方形/長方形 28">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86051A9B-D0B5-4812-8057-BE9969F82C90}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="926928" y="1569628"/>
-              <a:ext cx="50853" cy="95106"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -2231,8 +2048,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="977433" y="1227495"/>
-            <a:ext cx="1270000" cy="279399"/>
+            <a:off x="1413095" y="1552678"/>
+            <a:ext cx="554184" cy="328486"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2271,16 +2088,6 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>ジャンル</a:t>
-            </a:r>
-            <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
@@ -2288,7 +2095,7 @@
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(genrus)</a:t>
+              <a:t>genrus</a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
@@ -2306,22 +2113,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>380887</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>77242</xdr:rowOff>
+      <xdr:colOff>876187</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>810534</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>266948</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1043940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="30" name="グループ化 29">
+        <xdr:cNvPr id="31" name="グループ化 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3229EB-6FE7-40C7-9C1C-8E9C7A02F0E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A979E45-ABE2-4C5F-B4CD-A4916EA5B287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2329,712 +2136,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="380887" y="763042"/>
-          <a:ext cx="3679577" cy="4647406"/>
-          <a:chOff x="984250" y="1341473"/>
-          <a:chExt cx="1940817" cy="3229972"/>
+          <a:off x="876187" y="1352550"/>
+          <a:ext cx="2333738" cy="3587115"/>
+          <a:chOff x="914400" y="1549400"/>
+          <a:chExt cx="1940817" cy="2914095"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="31" name="グループ化 30">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A979E45-ABE2-4C5F-B4CD-A4916EA5B287}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="984250" y="1657350"/>
-            <a:ext cx="1940817" cy="2914095"/>
-            <a:chOff x="914400" y="1549400"/>
-            <a:chExt cx="1940817" cy="2914095"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="33" name="正方形/長方形 32">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F2BA67-56E5-4686-8C81-B2B54F05CED9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="914400" y="1549400"/>
-              <a:ext cx="1940817" cy="247651"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>タスク</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>ID(id) increments</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="34" name="正方形/長方形 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30FA3B2-B65B-44A0-B38C-FB386B33FBB6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="914400" y="1797048"/>
-              <a:ext cx="1940817" cy="2666447"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ステータス</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(status)	 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>char</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>完了期限</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(deadline)	 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>date</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>完了日</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(achievement) </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>	datetime</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>作成日</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(created_at)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t> 	</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>timestamps</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>更新日</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(update_at)  	</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>timestamps</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>削除日</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(delete_at)   	smalldatetime</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>削除フラグ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(delete-flg) 	</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>boolean</a:t>
-              </a:r>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>タスク名</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(name)	string</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>タスクの詳細</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(detail))	 text</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr/>
-              </a:pPr>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ジャンル</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>iD(genru) 	string</a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>セット数  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(set_count) 	string</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>回数</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>count</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                  <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                </a:rPr>
-                <a:t>)            	string</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="正方形/長方形 31">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC859EA-7725-4771-A705-6F5AEDEE2436}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F2BA67-56E5-4686-8C81-B2B54F05CED9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3042,8 +2155,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="984250" y="1341473"/>
-            <a:ext cx="1270000" cy="279400"/>
+            <a:off x="914400" y="1549400"/>
+            <a:ext cx="1940817" cy="247651"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3051,7 +2164,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -3072,42 +2185,705 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l"/>
+            <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>タスク</a:t>
+              <a:t>task</a:t>
             </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C30FA3B2-B65B-44A0-B38C-FB386B33FBB6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="914400" y="1797048"/>
+            <a:ext cx="1940817" cy="2666447"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(tasks)</a:t>
+              <a:t>🔑</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  id </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>            int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>name</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>           </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>varchar(26)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>status             char(1)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    create_at        timestamp</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    update_at       timestamp</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    delete_at        timestamp</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    achivement    datetime</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    deadline          date</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    setcount          varchar(255)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    count</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>                varchar(255)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    genru                varchar(255)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>    detail               </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> text</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
             </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3116,16 +2892,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>821882</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1049</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1084772</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>86774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>467635</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>732430</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>141798</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3155,8 +2931,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4068665" y="2055136"/>
-          <a:ext cx="718682" cy="396516"/>
+          <a:off x="3246947" y="1801274"/>
+          <a:ext cx="731603" cy="399829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,23 +2953,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>456846</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>682798</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>48442</xdr:rowOff>
+      <xdr:rowOff>211381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>556920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>313413</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1815177</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13">
+        <xdr:cNvPr id="15" name="グループ化 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F561318-161A-413A-BD85-D8FFF0922646}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03808A7-6274-453C-9602-20A61D6143AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,256 +2977,18 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4781196" y="3822247"/>
-          <a:ext cx="3639564" cy="1293671"/>
-          <a:chOff x="977433" y="1227495"/>
-          <a:chExt cx="1271737" cy="1665547"/>
+          <a:off x="3930823" y="3979471"/>
+          <a:ext cx="2204894" cy="1449779"/>
+          <a:chOff x="909320" y="1433824"/>
+          <a:chExt cx="1270000" cy="1351268"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="15" name="グループ化 14">
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03808A7-6274-453C-9602-20A61D6143AB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="979170" y="1537827"/>
-            <a:ext cx="1270000" cy="1355215"/>
-            <a:chOff x="909320" y="1429877"/>
-            <a:chExt cx="1270000" cy="1355215"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="17" name="正方形/長方形 16">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49CB922-4B82-4CE2-81BB-0EA34D64EAF2}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="909320" y="1429877"/>
-              <a:ext cx="1270000" cy="373291"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>　　 実施日</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(excution)	date  </a:t>
-              </a:r>
-              <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1600">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="正方形/長方形 17">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D26AE5-A47F-4ABE-9340-69B419D063CC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="909320" y="1803168"/>
-              <a:ext cx="1270000" cy="981924"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="正方形/長方形 18">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACFA77C-DF15-4AE8-AE74-AE411E4A878D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="926928" y="1569628"/>
-              <a:ext cx="50853" cy="95106"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-              <a:prstTxWarp prst="textNoShape">
-                <a:avLst/>
-              </a:prstTxWarp>
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="l"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
-              </a:endParaRPr>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2411BDA0-7F46-4ED3-BEA8-DEF193ECC019}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49CB922-4B82-4CE2-81BB-0EA34D64EAF2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3458,8 +2996,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="977433" y="1227495"/>
-            <a:ext cx="1270000" cy="279399"/>
+            <a:off x="909320" y="1433824"/>
+            <a:ext cx="1267976" cy="371226"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3467,7 +3005,7 @@
           <a:noFill/>
           <a:ln>
             <a:solidFill>
-              <a:schemeClr val="bg1"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -3488,36 +3026,247 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" altLang="ja-JP" sz="1400" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>excutinons</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D26AE5-A47F-4ABE-9340-69B419D063CC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="909320" y="1803168"/>
+            <a:ext cx="1270000" cy="981924"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="l"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>プロジェクト</a:t>
+              <a:t>🔑　</a:t>
             </a:r>
             <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
                 <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
               </a:rPr>
-              <a:t>(excutions)</a:t>
+              <a:t>excute         date</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>create_at </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>      timestamp</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>   update_at      timestamp</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3532,16 +3281,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>814925</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>249196</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1056860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35836</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>456868</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>306125</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685468</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3571,8 +3320,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4053425" y="4363996"/>
-          <a:ext cx="716363" cy="399829"/>
+          <a:off x="3219035" y="4493536"/>
+          <a:ext cx="714458" cy="403639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3594,7 +3343,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5178,7 +4927,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5483,7 +5232,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6237,7 +5986,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="76" t="str">
         <f>"Ver. " &amp; INDEX(改訂履歴!A:A,COUNTA(改訂履歴!A:A)+1)</f>
-        <v>Ver. 1.0.1</v>
+        <v>Ver. 1.0.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -6426,9 +6175,9 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10:I10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6483,7 +6232,7 @@
       </c>
       <c r="G2" s="27" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",TEXT(INDEX(B:B,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"YYYY/MM/DD"))</f>
-        <v>2022/01/07</v>
+        <v>2022/01/19</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>2</v>
@@ -6520,14 +6269,14 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115" t="s">
+      <c r="G4" s="117"/>
+      <c r="H4" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="115"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -6543,14 +6292,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116" t="s">
+      <c r="G5" s="118"/>
+      <c r="H5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="116"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35" t="s">
@@ -6568,25 +6317,37 @@
       <c r="E6" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="116" t="s">
+      <c r="F6" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116" t="s">
+      <c r="G6" s="118"/>
+      <c r="H6" s="118" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="116"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="106"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="A7" s="112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="39">
+        <v>44580</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="118"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="106"/>
@@ -6594,10 +6355,10 @@
       <c r="C8" s="38"/>
       <c r="D8" s="37"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="40"/>
@@ -6605,10 +6366,10 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -6616,10 +6377,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
@@ -6627,10 +6388,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="115"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
@@ -6638,10 +6399,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="115"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
@@ -6649,10 +6410,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
@@ -6660,10 +6421,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="40"/>
@@ -6671,10 +6432,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="40"/>
@@ -6773,8 +6534,7 @@
     <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;L(C) 2019 Lateral Thinking Inc.&amp;R&amp;P / &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
-  <legacyDrawingHF r:id="rId4"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6785,9 +6545,9 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11:I11"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6840,7 +6600,7 @@
         <v>4</v>
       </c>
       <c r="G2" s="27">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>2</v>
@@ -6866,10 +6626,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="50"/>
@@ -6877,10 +6637,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
@@ -6888,10 +6648,10 @@
       <c r="C6" s="13"/>
       <c r="D6" s="52"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="108"/>
@@ -6899,10 +6659,10 @@
       <c r="C7" s="110"/>
       <c r="D7" s="52"/>
       <c r="E7" s="55"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="108"/>
@@ -6910,10 +6670,10 @@
       <c r="C8" s="110"/>
       <c r="D8" s="52"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
@@ -6921,10 +6681,10 @@
       <c r="C9" s="13"/>
       <c r="D9" s="52"/>
       <c r="E9" s="55"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
@@ -6932,10 +6692,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="52"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
@@ -6943,12 +6703,12 @@
       <c r="C11" s="13"/>
       <c r="D11" s="52"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="56"/>
@@ -6956,10 +6716,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="52"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="56"/>
@@ -6967,10 +6727,10 @@
       <c r="C13" s="13"/>
       <c r="D13" s="52"/>
       <c r="E13" s="55"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="56"/>
@@ -6978,21 +6738,23 @@
       <c r="C14" s="13"/>
       <c r="D14" s="52"/>
       <c r="E14" s="55"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="13"/>
       <c r="D15" s="52"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
+      <c r="E15" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
@@ -7191,10 +6953,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
@@ -7202,10 +6964,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="54"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="121"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -7213,10 +6975,10 @@
       <c r="C6" s="12"/>
       <c r="D6" s="52"/>
       <c r="E6" s="54"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="121"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
@@ -7224,10 +6986,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="52"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="65"/>
@@ -7235,10 +6997,10 @@
       <c r="C8" s="12"/>
       <c r="D8" s="52"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="65"/>
@@ -7246,10 +7008,10 @@
       <c r="C9" s="12"/>
       <c r="D9" s="52"/>
       <c r="E9" s="54"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="121"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="65"/>
@@ -7257,10 +7019,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="52"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7268,10 +7030,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="52"/>
       <c r="E11" s="54"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7279,10 +7041,10 @@
       <c r="C12" s="12"/>
       <c r="D12" s="52"/>
       <c r="E12" s="54"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7290,10 +7052,10 @@
       <c r="C13" s="12"/>
       <c r="D13" s="52"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7301,10 +7063,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="52"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7312,10 +7074,10 @@
       <c r="C15" s="12"/>
       <c r="D15" s="52"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7444,7 +7206,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7528,42 +7290,42 @@
       <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="139"/>
       <c r="C5" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="128" t="s">
+      <c r="F5" s="133"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="129"/>
+      <c r="I5" s="131"/>
     </row>
     <row r="6" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="131"/>
       <c r="C6" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="92"/>
-      <c r="E6" s="123" t="s">
+      <c r="E6" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="124"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="122"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="87"/>
@@ -7574,13 +7336,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="93"/>
-      <c r="E7" s="123" t="s">
+      <c r="E7" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="124"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="123"/>
+      <c r="I7" s="124"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88"/>
@@ -7591,30 +7353,30 @@
         <v>30</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="123" t="s">
+      <c r="E8" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="124"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="122"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
     </row>
     <row r="9" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="129"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="85"/>
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="123"/>
+      <c r="I9" s="124"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96"/>
@@ -7625,80 +7387,80 @@
       <c r="D10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="123" t="s">
+      <c r="E10" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="124"/>
-      <c r="G10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="87"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="136"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="122"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
     </row>
     <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="87"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="136"/>
       <c r="D12" s="85"/>
-      <c r="E12" s="123" t="s">
+      <c r="E12" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="122"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="124"/>
     </row>
     <row r="13" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="87"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
       <c r="D13" s="85"/>
-      <c r="E13" s="123" t="s">
+      <c r="E13" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="122"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
     </row>
     <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="87"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="123" t="s">
+      <c r="E14" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="88"/>
-      <c r="B15" s="135"/>
-      <c r="C15" s="135"/>
-      <c r="D15" s="123" t="s">
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7763,7 +7525,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7839,23 +7601,23 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="98"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="119"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="121"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -7915,10 +7677,10 @@
       <c r="C10" s="98"/>
       <c r="D10" s="52"/>
       <c r="E10" s="99"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="121"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7926,10 +7688,10 @@
       <c r="C11" s="98"/>
       <c r="D11" s="52"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="121"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7937,10 +7699,10 @@
       <c r="C12" s="98"/>
       <c r="D12" s="52"/>
       <c r="E12" s="99"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="121"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7948,10 +7710,10 @@
       <c r="C13" s="98"/>
       <c r="D13" s="52"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="121"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7959,10 +7721,10 @@
       <c r="C14" s="98"/>
       <c r="D14" s="52"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="121"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7970,10 +7732,10 @@
       <c r="C15" s="98"/>
       <c r="D15" s="52"/>
       <c r="E15" s="99"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="121"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7981,10 +7743,10 @@
       <c r="C16" s="98"/>
       <c r="D16" s="52"/>
       <c r="E16" s="99"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="121"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="65"/>
@@ -8040,12 +7802,12 @@
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="67"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>

--- a/doc/【ToDoリスト】ER図_外山秀樹.xlsx
+++ b/doc/【ToDoリスト】ER図_外山秀樹.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397A8D5-FAED-4687-ACB3-A65B31400474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C97A47-A0C7-45F4-8546-1ACED8EF3421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>構成要素</t>
     <rPh sb="0" eb="2">
@@ -728,19 +728,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了日と実施日で紐づけ</t>
-    <rPh sb="0" eb="3">
-      <t>カンリョウビ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジッシビ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>外山</t>
     <rPh sb="0" eb="2">
       <t>トヤマ</t>
@@ -774,6 +761,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外山</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB追加(ideal,reals)</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1543,9 +1548,6 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1564,6 +1566,18 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1573,25 +1587,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,14 +1641,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1615,47 +1650,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,15 +1746,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>739936</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>59839</xdr:rowOff>
+      <xdr:colOff>110707</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>217954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2063115</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:colOff>1439601</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1764,8 +1769,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3991771" y="1427629"/>
-          <a:ext cx="2397599" cy="1201272"/>
+          <a:off x="3362814" y="910013"/>
+          <a:ext cx="2401953" cy="1201817"/>
           <a:chOff x="979170" y="1537827"/>
           <a:chExt cx="1270000" cy="1664825"/>
         </a:xfrm>
@@ -2113,15 +2118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>876187</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>320040</xdr:rowOff>
+      <xdr:colOff>266587</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1043940</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2136,8 +2141,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="876187" y="1352550"/>
-          <a:ext cx="2333738" cy="3587115"/>
+          <a:off x="266587" y="857794"/>
+          <a:ext cx="2331289" cy="3561806"/>
           <a:chOff x="914400" y="1549400"/>
           <a:chExt cx="1940817" cy="2914095"/>
         </a:xfrm>
@@ -2893,15 +2898,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1084772</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>86774</xdr:rowOff>
+      <xdr:colOff>450407</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>164879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>732430</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>141798</xdr:rowOff>
+      <xdr:colOff>92350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>212283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2931,8 +2936,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3246947" y="1801274"/>
-          <a:ext cx="731603" cy="399829"/>
+          <a:off x="2612582" y="1193579"/>
+          <a:ext cx="731603" cy="394114"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2954,15 +2959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>682798</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>211381</xdr:rowOff>
+      <xdr:colOff>83386</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1815177</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>289560</xdr:rowOff>
+      <xdr:colOff>1208145</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>249556</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2977,10 +2982,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3930823" y="3979471"/>
-          <a:ext cx="2204894" cy="1449779"/>
+          <a:off x="3337398" y="2910222"/>
+          <a:ext cx="2195913" cy="1431274"/>
           <a:chOff x="909320" y="1433824"/>
-          <a:chExt cx="1270000" cy="1351268"/>
+          <a:chExt cx="1270000" cy="1347727"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3076,7 +3081,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="909320" y="1803168"/>
+            <a:off x="909320" y="1799627"/>
             <a:ext cx="1270000" cy="981924"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3282,15 +3287,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1056860</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35836</xdr:rowOff>
+      <xdr:colOff>445355</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>92986</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>685468</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>96575</xdr:rowOff>
+      <xdr:colOff>75868</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>149915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3320,8 +3325,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3219035" y="4493536"/>
-          <a:ext cx="714458" cy="403639"/>
+          <a:off x="2607530" y="3179086"/>
+          <a:ext cx="716363" cy="399829"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3338,6 +3343,906 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123604</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>194475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>52210</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>307367</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D2FD7F-6238-49D9-8F53-4269AB6F97B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6793009" y="890344"/>
+          <a:ext cx="2325368" cy="1471702"/>
+          <a:chOff x="910471" y="1552433"/>
+          <a:chExt cx="1947929" cy="1399483"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B61CFF0F-4771-431A-A9A2-3DE67399DC2F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="910471" y="1552433"/>
+            <a:ext cx="1947929" cy="247301"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ideals</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3E9CCE9-C55E-4418-BE95-7E5E29C72D12}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="914400" y="1797048"/>
+            <a:ext cx="1940817" cy="1154868"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>🔑</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  id </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>            bigint</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>ideal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>           double(8,2)</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>create_at </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>      timestamp</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>〇</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>  update_at      timestamp</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>131002</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>102124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>58559</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24846</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A74B28-34DC-4EDB-B868-EBA98BEB8D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6802312" y="2493171"/>
+          <a:ext cx="2314794" cy="2303972"/>
+          <a:chOff x="914400" y="1549400"/>
+          <a:chExt cx="1940817" cy="1893871"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C3659D-60D7-42F7-8596-3579C398DE22}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="914400" y="1549400"/>
+            <a:ext cx="1940817" cy="247651"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>reals</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="32" name="正方形/長方形 31">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845B064A-24E3-427D-9795-19B8C10D4DFF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="914400" y="1797048"/>
+            <a:ext cx="1940817" cy="1646223"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>🔑</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>  id </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>            bigint</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>date	</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>     date</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>real	     double(8,2)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>protain        int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇    </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>calorie         int</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>create_at      timestamp</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>〇　</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>update_at     timestamp</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Yu Gothic UI" panose="020B0500000000000000" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5986,7 +6891,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="76" t="str">
         <f>"Ver. " &amp; INDEX(改訂履歴!A:A,COUNTA(改訂履歴!A:A)+1)</f>
-        <v>Ver. 1.0.2</v>
+        <v>Ver. 1.1.0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -6175,9 +7080,9 @@
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6232,7 +7137,7 @@
       </c>
       <c r="G2" s="27" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",TEXT(INDEX(B:B,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"YYYY/MM/DD"))</f>
-        <v>2022/01/19</v>
+        <v>2022/01/25</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>2</v>
@@ -6269,14 +7174,14 @@
       <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="117" t="s">
+      <c r="F4" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117" t="s">
+      <c r="G4" s="113"/>
+      <c r="H4" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="117"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="35" t="s">
@@ -6292,14 +7197,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118" t="s">
+      <c r="G5" s="114"/>
+      <c r="H5" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="118"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="35" t="s">
@@ -6314,51 +7219,61 @@
       <c r="D6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118" t="s">
+      <c r="G6" s="114"/>
+      <c r="H6" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="118"/>
+      <c r="I6" s="114"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="112" t="s">
-        <v>63</v>
+      <c r="A7" s="111" t="s">
+        <v>62</v>
       </c>
       <c r="B7" s="39">
         <v>44580</v>
       </c>
       <c r="C7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="110" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="118"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="106"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
+      <c r="A8" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="39">
+        <v>44586</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="40"/>
@@ -6366,10 +7281,10 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
@@ -6377,10 +7292,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="115"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="118"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
@@ -6388,10 +7303,10 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="115"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
@@ -6399,10 +7314,10 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="115"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="118"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
@@ -6410,10 +7325,10 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
@@ -6421,10 +7336,10 @@
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="115"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="40"/>
@@ -6432,10 +7347,10 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="115"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="118"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="40"/>
@@ -6496,18 +7411,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
@@ -6520,6 +7423,18 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6545,9 +7460,9 @@
   </sheetPr>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15:G15"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -6582,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6600,13 +7515,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="27">
-        <v>44580</v>
+        <v>44586</v>
       </c>
       <c r="H2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
@@ -6626,10 +7541,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="50"/>
@@ -6637,10 +7552,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="55"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
@@ -6648,32 +7563,32 @@
       <c r="C6" s="13"/>
       <c r="D6" s="52"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="108"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="110"/>
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="52"/>
       <c r="E7" s="55"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="52"/>
       <c r="E8" s="55"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
@@ -6681,10 +7596,10 @@
       <c r="C9" s="13"/>
       <c r="D9" s="52"/>
       <c r="E9" s="55"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
@@ -6692,10 +7607,10 @@
       <c r="C10" s="13"/>
       <c r="D10" s="52"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
@@ -6703,12 +7618,10 @@
       <c r="C11" s="13"/>
       <c r="D11" s="52"/>
       <c r="E11" s="55"/>
-      <c r="F11" s="119" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="56"/>
@@ -6716,10 +7629,10 @@
       <c r="C12" s="13"/>
       <c r="D12" s="52"/>
       <c r="E12" s="55"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="56"/>
@@ -6727,10 +7640,10 @@
       <c r="C13" s="13"/>
       <c r="D13" s="52"/>
       <c r="E13" s="55"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="56"/>
@@ -6738,10 +7651,10 @@
       <c r="C14" s="13"/>
       <c r="D14" s="52"/>
       <c r="E14" s="55"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
@@ -6749,12 +7662,12 @@
       <c r="C15" s="13"/>
       <c r="D15" s="52"/>
       <c r="E15" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
+        <v>67</v>
+      </c>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
@@ -6831,18 +7744,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
@@ -6855,6 +7756,18 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -6953,10 +7866,10 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="122"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
@@ -6964,10 +7877,10 @@
       <c r="C5" s="53"/>
       <c r="D5" s="52"/>
       <c r="E5" s="54"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="121"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -6975,10 +7888,10 @@
       <c r="C6" s="12"/>
       <c r="D6" s="52"/>
       <c r="E6" s="54"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="121"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="122"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="65"/>
@@ -6986,10 +7899,10 @@
       <c r="C7" s="12"/>
       <c r="D7" s="52"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="122"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="65"/>
@@ -6997,10 +7910,10 @@
       <c r="C8" s="12"/>
       <c r="D8" s="52"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="121"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="65"/>
@@ -7008,10 +7921,10 @@
       <c r="C9" s="12"/>
       <c r="D9" s="52"/>
       <c r="E9" s="54"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="121"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="122"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="65"/>
@@ -7019,10 +7932,10 @@
       <c r="C10" s="12"/>
       <c r="D10" s="52"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="121"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="122"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7030,10 +7943,10 @@
       <c r="C11" s="12"/>
       <c r="D11" s="52"/>
       <c r="E11" s="54"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="121"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7041,10 +7954,10 @@
       <c r="C12" s="12"/>
       <c r="D12" s="52"/>
       <c r="E12" s="54"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="121"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7052,10 +7965,10 @@
       <c r="C13" s="12"/>
       <c r="D13" s="52"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="121"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="122"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7063,10 +7976,10 @@
       <c r="C14" s="12"/>
       <c r="D14" s="52"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="121"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="122"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7074,10 +7987,10 @@
       <c r="C15" s="12"/>
       <c r="D15" s="52"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="121"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7160,30 +8073,30 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="24">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7290,42 +8203,42 @@
       <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="139"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="84" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="133"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="130" t="s">
+      <c r="F5" s="124"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="131"/>
+      <c r="I5" s="125"/>
     </row>
     <row r="6" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="131"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="92"/>
-      <c r="E6" s="125" t="s">
+      <c r="E6" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="136"/>
     </row>
     <row r="7" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="87"/>
@@ -7336,13 +8249,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="93"/>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="126"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="123"/>
-      <c r="I7" s="124"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
     </row>
     <row r="8" spans="1:9" ht="257.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="88"/>
@@ -7353,30 +8266,30 @@
         <v>30</v>
       </c>
       <c r="D8" s="94"/>
-      <c r="E8" s="125" t="s">
+      <c r="E8" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="126"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
     </row>
     <row r="9" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="131"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="85" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="85"/>
-      <c r="E9" s="125" t="s">
+      <c r="E9" s="131" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="126"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="124"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="136"/>
     </row>
     <row r="10" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="96"/>
@@ -7387,80 +8300,80 @@
       <c r="D10" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="131" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="126"/>
-      <c r="G10" s="127"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
       <c r="H10" s="90"/>
       <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="87"/>
-      <c r="B11" s="135" t="s">
+      <c r="B11" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="138"/>
+      <c r="C11" s="130"/>
       <c r="D11" s="85"/>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="126"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="124"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="87"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="136"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="85"/>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="126"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="124"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
     </row>
     <row r="13" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="87"/>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
       <c r="D13" s="85"/>
-      <c r="E13" s="125" t="s">
+      <c r="E13" s="131" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="1:9" ht="99.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="87"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
       <c r="D14" s="85"/>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="126"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="136"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="88"/>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="125" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="124"/>
+      <c r="E15" s="138"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="136"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7477,6 +8390,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="26">
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="B11:B15"/>
@@ -7485,24 +8416,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -7601,23 +8514,23 @@
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
       <c r="E4" s="98"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="122"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="121"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="142" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="121"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="65"/>
@@ -7677,10 +8590,10 @@
       <c r="C10" s="98"/>
       <c r="D10" s="52"/>
       <c r="E10" s="99"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="119"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="121"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="122"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="65"/>
@@ -7688,10 +8601,10 @@
       <c r="C11" s="98"/>
       <c r="D11" s="52"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="121"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="65"/>
@@ -7699,10 +8612,10 @@
       <c r="C12" s="98"/>
       <c r="D12" s="52"/>
       <c r="E12" s="99"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="121"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="122"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="65"/>
@@ -7710,10 +8623,10 @@
       <c r="C13" s="98"/>
       <c r="D13" s="52"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="121"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="122"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="65"/>
@@ -7721,10 +8634,10 @@
       <c r="C14" s="98"/>
       <c r="D14" s="52"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="121"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="122"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="65"/>
@@ -7732,10 +8645,10 @@
       <c r="C15" s="98"/>
       <c r="D15" s="52"/>
       <c r="E15" s="99"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="121"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="122"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="65"/>
@@ -7743,10 +8656,10 @@
       <c r="C16" s="98"/>
       <c r="D16" s="52"/>
       <c r="E16" s="99"/>
-      <c r="F16" s="119"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="121"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="122"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="65"/>
@@ -7802,12 +8715,12 @@
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="67"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
       <c r="H21" s="2"/>
       <c r="I21" s="3"/>
     </row>
@@ -7826,6 +8739,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
@@ -7833,18 +8758,6 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
